--- a/sellerflash-otomasyon-linkler/Wall Art - Lighting & Ceiling Fans (CA Only).xlsx
+++ b/sellerflash-otomasyon-linkler/Wall Art - Lighting & Ceiling Fans (CA Only).xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Library/CloudStorage/GoogleDrive-skywalkerpluton@gmail.com/Drive'ım/Amazon/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC38EE-5A1F-1148-B6A9-07A841A857F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576C69C-466E-264E-B5F3-D35BCD74FEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16900" xr2:uid="{8A32F5F4-125C-8A4D-A40D-C0A28C04D2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -536,7 +536,7 @@
   <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
